--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1305.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1305.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.004469798351713</v>
+        <v>1.095691442489624</v>
       </c>
       <c r="B1">
-        <v>2.534913391308082</v>
+        <v>2.186473369598389</v>
       </c>
       <c r="C1">
-        <v>5.576218701940072</v>
+        <v>9.671916961669922</v>
       </c>
       <c r="D1">
-        <v>2.202393940235782</v>
+        <v>1.187099695205688</v>
       </c>
       <c r="E1">
-        <v>1.258059336162627</v>
+        <v>1.236798048019409</v>
       </c>
     </row>
   </sheetData>
